--- a/rhla_analysis/rhla1_6_uniform_result/k10.xlsx
+++ b/rhla_analysis/rhla1_6_uniform_result/k10.xlsx
@@ -457,142 +457,142 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.00255758292015853</v>
+        <v>0.0027771302135863</v>
       </c>
       <c r="B2" t="n">
-        <v>0.2846955969816993</v>
+        <v>0.2850151175811276</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2894288150042626</v>
+        <v>0.2335369993211134</v>
       </c>
       <c r="D2" t="n">
-        <v>111.3143174118682</v>
+        <v>102.6293676064501</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.002153574692171819</v>
+        <v>0.002888299093048782</v>
       </c>
       <c r="B3" t="n">
-        <v>0.290735956825851</v>
+        <v>0.2918234213142084</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2894288150042626</v>
+        <v>0.2236931432450781</v>
       </c>
       <c r="D3" t="n">
-        <v>135.0015664107996</v>
+        <v>101.0364272926355</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.005176958680077683</v>
+        <v>0.00510318895544735</v>
       </c>
       <c r="B4" t="n">
-        <v>0.293008159225201</v>
+        <v>0.2908953174568588</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2855924978687127</v>
+        <v>0.2335369993211134</v>
       </c>
       <c r="D4" t="n">
-        <v>56.59851224093685</v>
+        <v>57.00265461390479</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.006148243310768947</v>
+        <v>0.004610649489182089</v>
       </c>
       <c r="B5" t="n">
-        <v>0.2898088996205314</v>
+        <v>0.2890795377119782</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2804774083546462</v>
+        <v>0.2247114731839783</v>
       </c>
       <c r="D5" t="n">
-        <v>47.13686251045352</v>
+        <v>62.69822470570404</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.002553845887470855</v>
+        <v>0.00225802893906471</v>
       </c>
       <c r="B6" t="n">
-        <v>0.2893714820744822</v>
+        <v>0.2888140039268272</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2953964194373401</v>
+        <v>0.2331975560081467</v>
       </c>
       <c r="D6" t="n">
-        <v>113.3081222692944</v>
+        <v>127.9053598163608</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.001984092795527524</v>
+        <v>0.001369763109444469</v>
       </c>
       <c r="B7" t="n">
-        <v>0.2819993637903224</v>
+        <v>0.2831919806566086</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2924126172208014</v>
+        <v>0.2304820095044127</v>
       </c>
       <c r="D7" t="n">
-        <v>142.1301284022582</v>
+        <v>206.7452238303177</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.003771314465468449</v>
+        <v>0.002898714615636073</v>
       </c>
       <c r="B8" t="n">
-        <v>0.2906683989244951</v>
+        <v>0.291610622375227</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2864450127877238</v>
+        <v>0.2274270196877121</v>
       </c>
       <c r="D8" t="n">
-        <v>77.07349826856461</v>
+        <v>100.5999765558977</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.002427989650283043</v>
+        <v>0.002237371572005226</v>
       </c>
       <c r="B9" t="n">
-        <v>0.2873960344863105</v>
+        <v>0.289201805350457</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2907075873827792</v>
+        <v>0.2328581126951799</v>
       </c>
       <c r="D9" t="n">
-        <v>118.3678993247798</v>
+        <v>129.2596227506646</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.002394485330392857</v>
+        <v>0.00256103828430378</v>
       </c>
       <c r="B10" t="n">
-        <v>0.2876598228393794</v>
+        <v>0.287299086924914</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2800511508951407</v>
+        <v>0.2121520706042091</v>
       </c>
       <c r="D10" t="n">
-        <v>120.1343015921437</v>
+        <v>112.1807076004006</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.001130286579342897</v>
+        <v>0.001813795091346843</v>
       </c>
       <c r="B11" t="n">
-        <v>0.2914369920064462</v>
+        <v>0.2930055646749183</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2979539641943734</v>
+        <v>0.2433808553971487</v>
       </c>
       <c r="D11" t="n">
-        <v>257.8434507962361</v>
+        <v>161.5428148817766</v>
       </c>
     </row>
   </sheetData>

--- a/rhla_analysis/rhla1_6_uniform_result/k10.xlsx
+++ b/rhla_analysis/rhla1_6_uniform_result/k10.xlsx
@@ -457,7 +457,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.0027771302135863</v>
+        <v>0.002777130213586318</v>
       </c>
       <c r="B2" t="n">
         <v>0.2850151175811276</v>
@@ -466,26 +466,26 @@
         <v>0.2335369993211134</v>
       </c>
       <c r="D2" t="n">
-        <v>102.6293676064501</v>
+        <v>102.6293676064494</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.002888299093048782</v>
+        <v>0.00288829909304881</v>
       </c>
       <c r="B3" t="n">
-        <v>0.2918234213142084</v>
+        <v>0.2918234213142085</v>
       </c>
       <c r="C3" t="n">
         <v>0.2236931432450781</v>
       </c>
       <c r="D3" t="n">
-        <v>101.0364272926355</v>
+        <v>101.0364272926346</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.00510318895544735</v>
+        <v>0.005103188955447319</v>
       </c>
       <c r="B4" t="n">
         <v>0.2908953174568588</v>
@@ -494,26 +494,26 @@
         <v>0.2335369993211134</v>
       </c>
       <c r="D4" t="n">
-        <v>57.00265461390479</v>
+        <v>57.00265461390513</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.004610649489182089</v>
+        <v>0.004610649489182066</v>
       </c>
       <c r="B5" t="n">
-        <v>0.2890795377119782</v>
+        <v>0.2890795377119783</v>
       </c>
       <c r="C5" t="n">
         <v>0.2247114731839783</v>
       </c>
       <c r="D5" t="n">
-        <v>62.69822470570404</v>
+        <v>62.69822470570437</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.00225802893906471</v>
+        <v>0.002258028939064682</v>
       </c>
       <c r="B6" t="n">
         <v>0.2888140039268272</v>
@@ -522,12 +522,12 @@
         <v>0.2331975560081467</v>
       </c>
       <c r="D6" t="n">
-        <v>127.9053598163608</v>
+        <v>127.9053598163624</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.001369763109444469</v>
+        <v>0.001369763109444468</v>
       </c>
       <c r="B7" t="n">
         <v>0.2831919806566086</v>
@@ -541,7 +541,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.002898714615636073</v>
+        <v>0.002898714615636055</v>
       </c>
       <c r="B8" t="n">
         <v>0.291610622375227</v>
@@ -550,12 +550,12 @@
         <v>0.2274270196877121</v>
       </c>
       <c r="D8" t="n">
-        <v>100.5999765558977</v>
+        <v>100.5999765558984</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.002237371572005226</v>
+        <v>0.002237371572005239</v>
       </c>
       <c r="B9" t="n">
         <v>0.289201805350457</v>
@@ -564,12 +564,12 @@
         <v>0.2328581126951799</v>
       </c>
       <c r="D9" t="n">
-        <v>129.2596227506646</v>
+        <v>129.2596227506639</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.00256103828430378</v>
+        <v>0.002561038284303786</v>
       </c>
       <c r="B10" t="n">
         <v>0.287299086924914</v>
@@ -578,21 +578,21 @@
         <v>0.2121520706042091</v>
       </c>
       <c r="D10" t="n">
-        <v>112.1807076004006</v>
+        <v>112.1807076004004</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.001813795091346843</v>
+        <v>0.001813795091346852</v>
       </c>
       <c r="B11" t="n">
-        <v>0.2930055646749183</v>
+        <v>0.2930055646749182</v>
       </c>
       <c r="C11" t="n">
         <v>0.2433808553971487</v>
       </c>
       <c r="D11" t="n">
-        <v>161.5428148817766</v>
+        <v>161.5428148817759</v>
       </c>
     </row>
   </sheetData>
